--- a/PRODUTOS/Frios/Frios - Leites.xlsx
+++ b/PRODUTOS/Frios/Frios - Leites.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leite Parmalat Uht 1l Integral</t>
+          <t>Leite Leco 1l Desnatado</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32bb86ca-a20d-4fe2-8167-88ae4a93607c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b68ceb3d-55a8-4136-90dd-a52c3eee6c81.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896229800117</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leite Italac 1lt Integral C/tampa</t>
+          <t>Leite Ninho Integral 1l</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bcc4406-82d3-40bd-999b-237231d36a8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fc35f46-cd01-4055-a283-a8fb27479c1e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000395943</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leite Ninho Integral 1l</t>
+          <t>Leite Paulista Uht Integral 1l</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 5,39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fc35f46-cd01-4055-a283-a8fb27479c1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/329854b8-2215-4728-a180-4be409e8b4e7.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7892999150124</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leite Paulista Uht Integral 1l</t>
+          <t>Leite Tirol 1l Int</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,39</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/329854b8-2215-4728-a180-4be409e8b4e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e991deb1-516e-4c96-8cf9-d2a08ecf3a7f.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896623100011</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leite Aurora Uht C/tampa 1l Integral</t>
+          <t>Leite Italac 1lt Integral C/tampa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09080db3-535f-4258-ad98-22b8aa395113.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bcc4406-82d3-40bd-999b-237231d36a8c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898080642646</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Leite Tirol 1l Int</t>
+          <t>Bebida A Base De Amendoa Silk 1lt S/açucar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 4,79</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e991deb1-516e-4c96-8cf9-d2a08ecf3a7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bcc8fb2-a622-4b67-bfc2-b3d8b7603832.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891025115229</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leite Uht Quata Edge 1l Integral</t>
+          <t>Bebida A Base De Amendoa E Cacau Silk 1lt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4356bd81-a7cb-44e0-8c94-d3702a1b3fa1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8828d6d-6a0f-44da-834f-c0ac7083619e.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891025117049</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Leite Levinho Ninho Edge 1l Semidesnatado</t>
+          <t>Bebida A Base Castanha Caju Silk 1lt S/açucar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/116939b3-d0f1-41e3-85a7-3a33020b62cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b84618-2e4a-4d8d-bc49-0cd823bdd9da.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891025116905</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leite Leco 1l Desnatado</t>
+          <t>Leite Aurora Uht C/tampa 1l Integral</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b68ceb3d-55a8-4136-90dd-a52c3eee6c81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09080db3-535f-4258-ad98-22b8aa395113.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7892999150124</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leite Ninho Zero Lactose 1l Integral</t>
+          <t>Leite Uht Quata Edge 1l Integral</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5141250d-b911-4b49-bd04-4b15829909de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4356bd81-a7cb-44e0-8c94-d3702a1b3fa1.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7892999150124</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leite Ninho Zero Lactose 1l Semidesnatado</t>
+          <t>Leite Uht Quata Edge 1l Zero Lactose Semidesnatado</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19e7f71c-7fb4-4cf3-906a-e92d59941d9d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15cc71f9-cc8f-43ba-b761-0820579559e5.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896294901870</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leite Uht Quata Edge 1l Desnatado</t>
+          <t>Bebida Á Base De Soja Lider 1l Original</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0cb683e-c4c4-4f7b-8aff-616ebe76bb91.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13df47b1-f873-47a6-b156-b8e6a85894d9.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896569402064</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leite Aurora 0% Lactose 1l Semidesnatado</t>
+          <t>Leite Fresco Xando Tipo A2a2 1l Integral</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 6,59</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d510c38-f8f8-4704-b283-0d791169f1f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb3c54d1-ceaf-4620-babd-6fd7b33fcb06.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896623100011</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leite Uht Quata Edge 1l Zero Lactose Semidesnatado</t>
+          <t>Brownie Chocolate Zero Lactose Mr Bey 140g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15cc71f9-cc8f-43ba-b761-0820579559e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7af10312-96ea-4ff0-ab54-99e3e56634ba.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7898161871569</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leite Uht A2 Italac Edge Semi Desnatado 1l</t>
+          <t>Petit Gateau Mr Bey 120g Leitinho E Chocolate</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c2722a0-9339-45bf-88d3-30c3ed4ef593.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9712d5cc-d736-41e4-bbf0-f6cf01630735.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898276522523</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bebida A Base De Amendoa Silk 1lt S/açucar</t>
+          <t>Leite Ninho Zero Lactose 1l Integral</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bcc8fb2-a622-4b67-bfc2-b3d8b7603832.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5141250d-b911-4b49-bd04-4b15829909de.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896294902020</t>
         </is>
       </c>
     </row>
@@ -893,7 +978,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Leite Uht Paulista Zero Lactose 1l Semidesnatado</t>
+          <t>Leite Parmalat Uht 1l Integral</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -903,277 +988,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a783a299-f648-4c03-b342-e643f19711a6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Framboesa Franui 150g Chocolate Ao Leite</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 37,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f820320d-ab61-4bac-a819-2a29f485e23d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Leite Itambe Int 1l Dez Vitaminas</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b87d817f-b345-493f-9c17-188ff1eaff97.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Bebida A Base Castanha Caju Silk 1lt S/açucar</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b84618-2e4a-4d8d-bc49-0cd823bdd9da.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Framboesa Franui 150g Chocolate Meio Amargo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 37,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b403e0c-ca8d-49f2-a048-4595ccb977f3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bebida A Base De Amendoa E Cacau Silk 1lt</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8828d6d-6a0f-44da-834f-c0ac7083619e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Leite Fresco Xando Tipo A2a2 1l Integral</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb3c54d1-ceaf-4620-babd-6fd7b33fcb06.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bebida Á Base De Soja Lider 1l Original</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13df47b1-f873-47a6-b156-b8e6a85894d9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Brownie Chocolate Zero Lactose Mr Bey 140g</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7af10312-96ea-4ff0-ab54-99e3e56634ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Petit Gateau Havanna 160g Doce De Leite</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aef5e442-5664-44fc-9b79-035bfdc4637b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Leites</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Petit Gateau Mr Bey 120g Leitinho E Chocolate</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9712d5cc-d736-41e4-bbf0-f6cf01630735.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32bb86ca-a20d-4fe2-8167-88ae4a93607c.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7892999150124</t>
         </is>
       </c>
     </row>
